--- a/Clan Members/EXCEL/NOV_2025.xlsx
+++ b/Clan Members/EXCEL/NOV_2025.xlsx
@@ -648,7 +648,7 @@
         <v>128</v>
       </c>
       <c r="E9">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="F9">
         <v>14</v>
@@ -657,7 +657,7 @@
         <v>7</v>
       </c>
       <c r="H9">
-        <v>590</v>
+        <v>631</v>
       </c>
       <c r="I9" t="str">
         <v>Elder</v>
